--- a/docs/Gaant Chart.xlsx
+++ b/docs/Gaant Chart.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.sammut\University\ICS5200\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="48240" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -331,26 +336,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -384,6 +389,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -391,7 +399,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -613,7 +621,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -641,7 +649,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -953,11 +961,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="141083008"/>
-        <c:axId val="141084544"/>
+        <c:axId val="152837640"/>
+        <c:axId val="152839208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141083008"/>
+        <c:axId val="152837640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1000,7 +1008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141084544"/>
+        <c:crossAx val="152839208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1008,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141084544"/>
+        <c:axId val="152839208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43280"/>
@@ -1043,7 +1051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141083008"/>
+        <c:crossAx val="152837640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1387,12 +1395,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1447,18 +1455,18 @@
         <v>2</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1522,7 +1530,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2">
@@ -1532,7 +1540,7 @@
         <v>43343</v>
       </c>
       <c r="E7" s="4">
-        <f>IF(ISBLANK(C7),"", (D7-C7))</f>
+        <f t="shared" ref="E7:E14" si="0">IF(ISBLANK(C7),"", (D7-C7))</f>
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
@@ -1548,7 +1556,7 @@
         <v>43351</v>
       </c>
       <c r="E8" s="4">
-        <f>IF(ISBLANK(C8),"", (D8-C8))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F8" s="1"/>
@@ -1564,7 +1572,7 @@
         <v>43357</v>
       </c>
       <c r="E9" s="4">
-        <f>IF(ISBLANK(C9),"", (D9-C9))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F9" s="1"/>
@@ -1580,7 +1588,7 @@
         <v>43449</v>
       </c>
       <c r="E10" s="4">
-        <f>IF(ISBLANK(C10),"", (D10-C10))</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="F10" s="1"/>
@@ -1596,7 +1604,7 @@
         <v>43367</v>
       </c>
       <c r="E11" s="4">
-        <f>IF(ISBLANK(C11),"", (D11-C11))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
@@ -1612,7 +1620,7 @@
         <v>43376</v>
       </c>
       <c r="E12" s="4">
-        <f>IF(ISBLANK(C12),"", (D12-C12))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F12" s="1"/>
@@ -1628,7 +1636,7 @@
         <v>43385</v>
       </c>
       <c r="E13" s="4">
-        <f>IF(ISBLANK(C13),"", (D13-C13))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F13" s="1"/>
@@ -1644,7 +1652,7 @@
         <v>43394</v>
       </c>
       <c r="E14" s="4">
-        <f>IF(ISBLANK(C14),"", (D14-C14))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F14" s="1"/>
@@ -1660,7 +1668,7 @@
         <v>43403</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:E20" si="0">IF(ISBLANK(C15),"", (D15-C15))</f>
+        <f t="shared" ref="E15:E20" si="1">IF(ISBLANK(C15),"", (D15-C15))</f>
         <v>8</v>
       </c>
       <c r="F15" s="1"/>
@@ -1676,7 +1684,7 @@
         <v>43412</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F16" s="1"/>
@@ -1692,7 +1700,7 @@
         <v>43472</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="F17" s="1"/>
@@ -1708,7 +1716,7 @@
         <v>43485</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F18" s="1"/>
@@ -1739,7 +1747,7 @@
         <v>43518</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F20" s="1"/>
@@ -1762,43 +1770,43 @@
     <row r="26" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="11"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="2:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
